--- a/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
+++ b/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1V1" sheetId="1" r:id="rId1"/>
     <sheet name="1V2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="238">
   <si>
     <t>Acosta Villafañe, Ania Micaela</t>
   </si>
@@ -739,6 +739,9 @@
   </si>
   <si>
     <t>Figura en autogestion desde 24/4</t>
+  </si>
+  <si>
+    <t>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (@1,@2, 1 , 3, null,'01/04/2018',0)</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +778,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,12 +815,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1117,7 @@
     <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="9" width="11" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1137,1001 +1152,1004 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="10">
+    <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="12">
         <v>78932</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="D2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="12">
         <v>78339</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="D3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="12">
         <v>75778</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="D4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="12">
         <v>79022</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="D5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="12">
         <v>78519</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" t="s">
-        <v>231</v>
-      </c>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="D6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="12">
         <v>80203</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" t="s">
-        <v>231</v>
-      </c>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="D7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="12">
         <v>78839</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" t="s">
-        <v>231</v>
-      </c>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="D8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="12">
         <v>80078</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="D9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="9">
         <v>78703</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="D10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="9">
         <v>78131</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="D11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="9">
         <v>72596</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="D12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="9">
         <v>78788</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="D13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="9">
         <v>75269</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="D14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="9">
         <v>79524</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="D15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="9">
         <v>78381</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="D16" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="9">
         <v>80411</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="D17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="9">
         <v>78515</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="E18" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="9">
         <v>48658</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="D19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="9">
         <v>57649</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>79364</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="G21" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="9">
         <v>78521</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="D22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="9">
         <v>79121</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="D23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="9">
         <v>77322</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="H24" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="9">
         <v>59379</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="10">
+    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="9">
         <v>81586</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="D26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="9">
         <v>79182</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="10">
+      <c r="D27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="9">
         <v>78479</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="D28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9">
         <v>63215</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="10">
+      <c r="D29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="9">
         <v>79798</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="10">
+      <c r="D30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="9">
         <v>70593</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="D31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="9">
         <v>78492</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="10">
+      <c r="D32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="9">
         <v>78617</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="D33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="9">
         <v>69416</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="10">
+    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="9">
         <v>79270</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="D35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="9">
         <v>75946</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="D36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="9">
         <v>81369</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="10">
+      <c r="D37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="9">
         <v>79526</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="10">
+      <c r="D38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="9">
         <v>74032</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="10">
+      <c r="D39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="9">
         <v>79638</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="10">
+      <c r="D40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="9">
         <v>71002</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="10">
+      <c r="D41" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="9">
         <v>81596</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>229</v>
       </c>
@@ -2156,8 +2174,12 @@
       <c r="J43" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B43,1),"@2",C43,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (79131,Ergo, Renata, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>229</v>
       </c>
@@ -2176,8 +2198,12 @@
       <c r="H44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B44,1),"@2",C44,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (80365,Farrell, Aylen, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>229</v>
       </c>
@@ -2206,7 +2232,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>229</v>
       </c>
@@ -2235,7 +2261,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>229</v>
       </c>
@@ -2264,7 +2290,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>229</v>
       </c>

--- a/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
+++ b/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1V1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="239">
   <si>
     <t>Acosta Villafañe, Ania Micaela</t>
   </si>
@@ -741,14 +741,17 @@
     <t>Figura en autogestion desde 24/4</t>
   </si>
   <si>
-    <t>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (@1,@2, 1 , 3, null,'01/04/2018',0)</t>
+    <t>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (@1,@2, 1 , 3, null,'01/04/2018',0)</t>
+  </si>
+  <si>
+    <t>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (@1,@2, 2 , 3, null,'01/04/2018',0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,28 +770,29 @@
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -796,11 +800,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,17 +830,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,3410 +1130,3763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="9" width="11" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="11">
         <v>43196</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="11">
         <v>43203</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="11">
         <v>43210</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="11">
         <v>43217</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="11">
         <v>43224</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="11">
         <v>43238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="14">
         <v>78932</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="D2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="14">
         <v>78339</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="D3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="14">
         <v>75778</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="D4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="14">
         <v>79022</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="D5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="14">
         <v>78519</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="D6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="14">
         <v>80203</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="D7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="14">
         <v>78839</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="D8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="14">
         <v>80078</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="D9" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="14">
         <v>78703</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="D10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="14">
         <v>78131</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="D11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="14">
         <v>72596</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="D12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="14">
         <v>78788</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="D13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="14">
         <v>75269</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="D14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="14">
         <v>79524</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="D15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="14">
         <v>78381</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="D16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="14">
         <v>80411</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="D17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="14">
         <v>78515</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="E18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="14">
         <v>48658</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="D19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="14">
         <v>57649</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="17">
         <v>79364</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="G21" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="14">
         <v>78521</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="D22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="14">
         <v>79121</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="D23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="14">
         <v>77322</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="H24" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="14">
         <v>59379</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="14">
         <v>81586</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="D26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="14">
         <v>79182</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="D27" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="14">
         <v>78479</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="D28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="14">
         <v>63215</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="D29" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="14">
         <v>79798</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="D30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="14">
         <v>70593</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="D31" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="14">
         <v>78492</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="D32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="14">
         <v>78617</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="D33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="14">
         <v>69416</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="14">
         <v>79270</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="D35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="14">
         <v>75946</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="D36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="14">
         <v>81369</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="D37" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="14">
         <v>79526</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="D38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="14">
         <v>74032</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="9">
+      <c r="D39" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="14">
         <v>79638</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="D40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="14">
         <v>71002</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="D41" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="14">
         <v>81596</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="D42" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="14">
         <v>79131</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E43" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G43" t="s">
-        <v>231</v>
-      </c>
-      <c r="H43" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" t="str">
+      <c r="E43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K43" s="12" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B43,1),"@2",C43,1)</f>
-        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (79131,Ergo, Renata, 1 , 3, null,'01/04/2018',0)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B44" s="2">
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79131,Ergo, Renata, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="14">
         <v>80365</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E44" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" t="s">
-        <v>231</v>
-      </c>
-      <c r="L44" t="str">
+      <c r="E44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" s="12" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B44,1),"@2",C44,1)</f>
-        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) values (80365,Farrell, Aylen, 1 , 3, null,'01/04/2018',0)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" s="2">
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80365,Farrell, Aylen, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="14">
         <v>79458</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H45" t="s">
-        <v>231</v>
-      </c>
-      <c r="J45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="D45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B45,1),"@2",C45,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79458,Ferreyra Romano, Valentina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="14">
         <v>78372</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" t="s">
-        <v>231</v>
-      </c>
-      <c r="J46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="D46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K46" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B46,1),"@2",C46,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78372,Ferreyra, Carolina Jackeline, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="14">
         <v>76622</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" t="s">
-        <v>231</v>
-      </c>
-      <c r="G47" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="D47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K47" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B47,1),"@2",C47,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76622,Fiant, Valeria Viviana, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="14">
         <v>79994</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" t="s">
-        <v>231</v>
-      </c>
-      <c r="J48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="D48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B48,1),"@2",C48,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79994,Flores, Maria Victoria, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="14">
         <v>79571</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" t="s">
-        <v>231</v>
-      </c>
-      <c r="J49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="D49" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K49" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B49,1),"@2",C49,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79571,Forner, Franco Antonio, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="14">
         <v>78469</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" t="s">
-        <v>231</v>
-      </c>
-      <c r="H50" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="D50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K50" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B50,1),"@2",C50,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78469,Garcia Reggio, Sofia Agustina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="14">
         <v>78759</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-      <c r="F51" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="D51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K51" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B51,1),"@2",C51,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78759,Giannantonio, Ximena Azul, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="14">
         <v>80239</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" t="s">
-        <v>231</v>
-      </c>
-      <c r="J52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="D52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K52" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B52,1),"@2",C52,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80239,Gianoboli, Bruno Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="14">
         <v>80800</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D53" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" t="s">
-        <v>231</v>
-      </c>
-      <c r="G53" t="s">
-        <v>231</v>
-      </c>
-      <c r="H53" t="s">
-        <v>231</v>
-      </c>
-      <c r="J53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="D53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B53,1),"@2",C53,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80800,Gigena Appolonio, Nazarena Luz, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="14">
         <v>76330</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" t="s">
-        <v>231</v>
-      </c>
-      <c r="G54" t="s">
-        <v>231</v>
-      </c>
-      <c r="H54" t="s">
-        <v>231</v>
-      </c>
-      <c r="J54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="D54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K54" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B54,1),"@2",C54,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76330,Gimenez Hüppi, Maria Agustina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="14">
         <v>81088</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="D55" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K55" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B55,1),"@2",C55,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81088,Gonzalez Yatel, Deborah Lucrecia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="14">
         <v>79628</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" t="s">
-        <v>231</v>
-      </c>
-      <c r="G56" t="s">
-        <v>231</v>
-      </c>
-      <c r="J56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="D56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K56" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B56,1),"@2",C56,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79628,Guerra, Luciana Ines, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="14">
         <v>80037</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" t="s">
-        <v>231</v>
-      </c>
-      <c r="G57" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" t="s">
-        <v>231</v>
-      </c>
-      <c r="J57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="D57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K57" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B57,1),"@2",C57,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80037,Heredia Maza, Victoria Ariadna, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="14">
         <v>78915</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" t="s">
-        <v>231</v>
-      </c>
-      <c r="G58" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" t="s">
-        <v>231</v>
-      </c>
-      <c r="J58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="D58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K58" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B58,1),"@2",C58,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78915,Irazoque, Antonella, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="14">
         <v>79023</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" t="s">
-        <v>231</v>
-      </c>
-      <c r="F59" t="s">
-        <v>231</v>
-      </c>
-      <c r="G59" t="s">
-        <v>231</v>
-      </c>
-      <c r="H59" t="s">
-        <v>231</v>
-      </c>
-      <c r="J59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="D59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B59,1),"@2",C59,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79023,Juarez, Mayco Adrian, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="14">
         <v>79589</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E60" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" t="s">
-        <v>231</v>
-      </c>
-      <c r="H60" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="E60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K60" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B60,1),"@2",C60,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79589,Junco, Marco Simon, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="14">
         <v>79427</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D61" t="s">
-        <v>231</v>
-      </c>
-      <c r="E61" t="s">
-        <v>231</v>
-      </c>
-      <c r="F61" t="s">
-        <v>231</v>
-      </c>
-      <c r="G61" t="s">
-        <v>231</v>
-      </c>
-      <c r="J61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="D61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K61" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B61,1),"@2",C61,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79427,Kalas Gimenez, Lucia Constanza, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="14">
         <v>79529</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D62" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" t="s">
-        <v>231</v>
-      </c>
-      <c r="G62" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" t="s">
-        <v>231</v>
-      </c>
-      <c r="J62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="D62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K62" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B62,1),"@2",C62,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79529,Krumpholz, Dante, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="14">
         <v>79114</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E63" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" t="s">
-        <v>231</v>
-      </c>
-      <c r="G63" t="s">
-        <v>231</v>
-      </c>
-      <c r="H63" t="s">
-        <v>231</v>
-      </c>
-      <c r="J63" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="E63" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K63" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B63,1),"@2",C63,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79114,Ledesmas, Hernan Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="14">
         <v>81075</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D64" t="s">
-        <v>231</v>
-      </c>
-      <c r="E64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" t="s">
-        <v>231</v>
-      </c>
-      <c r="G64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="D64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K64" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B64,1),"@2",C64,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81075,Leones, Paula Lucia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="14">
         <v>80824</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
-        <v>231</v>
-      </c>
-      <c r="E65" t="s">
-        <v>231</v>
-      </c>
-      <c r="F65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G65" t="s">
-        <v>231</v>
-      </c>
-      <c r="H65" t="s">
-        <v>231</v>
-      </c>
-      <c r="J65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="D65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K65" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B65,1),"@2",C65,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80824,Lerda, Martin Lorenzo, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="14">
         <v>79674</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
-        <v>231</v>
-      </c>
-      <c r="E66" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" t="s">
-        <v>231</v>
-      </c>
-      <c r="H66" t="s">
-        <v>231</v>
-      </c>
-      <c r="J66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="D66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K66" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B66,1),"@2",C66,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79674,Levrino, Agustina Celina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="14">
         <v>80408</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" t="s">
-        <v>231</v>
-      </c>
-      <c r="G67" t="s">
-        <v>231</v>
-      </c>
-      <c r="H67" t="s">
-        <v>231</v>
-      </c>
-      <c r="J67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="D67" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K67" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B67,1),"@2",C67,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80408,Lorello, Angel Lautaro, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="14">
         <v>81522</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F68" t="s">
-        <v>231</v>
-      </c>
-      <c r="H68" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="F68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B68,1),"@2",C68,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81522,Lucero Narvaez, Lourdes Fernanda, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" s="14">
         <v>67043</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D69" t="s">
-        <v>231</v>
-      </c>
-      <c r="E69" t="s">
-        <v>231</v>
-      </c>
-      <c r="F69" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" t="s">
-        <v>231</v>
-      </c>
-      <c r="H69" t="s">
-        <v>231</v>
-      </c>
-      <c r="J69" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="D69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K69" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B69,1),"@2",C69,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (67043,Lucero, Brenda Ayelen, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="14">
         <v>79086</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D70" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F70" t="s">
-        <v>231</v>
-      </c>
-      <c r="G70" t="s">
-        <v>231</v>
-      </c>
-      <c r="H70" t="s">
-        <v>231</v>
-      </c>
-      <c r="J70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="D70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K70" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B70,1),"@2",C70,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79086,Martinez Garbarino, Macarena, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="14">
         <v>77603</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="K71" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B71,1),"@2",C71,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77603,Martinez, Rodrigo Hernan, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="14">
         <v>75984</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D72" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" t="s">
-        <v>231</v>
-      </c>
-      <c r="G72" t="s">
-        <v>231</v>
-      </c>
-      <c r="H72" t="s">
-        <v>231</v>
-      </c>
-      <c r="J72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="D72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K72" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B72,1),"@2",C72,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75984,Mazzieri, Nazarena Azul, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="14">
         <v>78925</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73" t="s">
-        <v>231</v>
-      </c>
-      <c r="G73" t="s">
-        <v>231</v>
-      </c>
-      <c r="H73" t="s">
-        <v>231</v>
-      </c>
-      <c r="J73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="D73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K73" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B73,1),"@2",C73,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78925,Medina, Camila Mariel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="14">
         <v>78111</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="K74" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B74,1),"@2",C74,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78111,Mendez, Tomás Antonio, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="14">
         <v>78378</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D75" t="s">
-        <v>231</v>
-      </c>
-      <c r="E75" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" t="s">
-        <v>231</v>
-      </c>
-      <c r="G75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" t="s">
-        <v>231</v>
-      </c>
-      <c r="J75" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="D75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K75" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B75,1),"@2",C75,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78378,Mendizabal, Santiago Manuel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="14">
         <v>78999</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D76" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" t="s">
-        <v>231</v>
-      </c>
-      <c r="F76" t="s">
-        <v>231</v>
-      </c>
-      <c r="G76" t="s">
-        <v>231</v>
-      </c>
-      <c r="H76" t="s">
-        <v>231</v>
-      </c>
-      <c r="J76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="D76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K76" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B76,1),"@2",C76,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78999,Menem, Ariana Guadalupe, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="14">
         <v>79574</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D77" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" t="s">
-        <v>231</v>
-      </c>
-      <c r="F77" t="s">
-        <v>231</v>
-      </c>
-      <c r="G77" t="s">
-        <v>231</v>
-      </c>
-      <c r="H77" t="s">
-        <v>231</v>
-      </c>
-      <c r="J77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="D77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B77,1),"@2",C77,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79574,Mikleg, Micaela Soledad, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="14">
         <v>78290</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D78" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" t="s">
-        <v>231</v>
-      </c>
-      <c r="F78" t="s">
-        <v>231</v>
-      </c>
-      <c r="G78" t="s">
-        <v>231</v>
-      </c>
-      <c r="H78" t="s">
-        <v>231</v>
-      </c>
-      <c r="J78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="D78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K78" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B78,1),"@2",C78,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78290,Milano, Andres Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14">
         <v>78560</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D79" t="s">
-        <v>231</v>
-      </c>
-      <c r="E79" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" t="s">
-        <v>231</v>
-      </c>
-      <c r="G79" t="s">
-        <v>231</v>
-      </c>
-      <c r="H79" t="s">
-        <v>231</v>
-      </c>
-      <c r="J79" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="D79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K79" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B79,1),"@2",C79,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78560,Mirolo, Maria Agostina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="14">
         <v>80308</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" t="s">
-        <v>231</v>
-      </c>
-      <c r="F80" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" t="s">
-        <v>231</v>
-      </c>
-      <c r="J80" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="D80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K80" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B80,1),"@2",C80,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80308,Molina, Rocio Belen, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="14">
         <v>77842</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="K81" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B81,1),"@2",C81,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77842,Monticelli, Gina Melisa, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14">
         <v>77347</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="K82" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B82,1),"@2",C82,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77347,Moreira de Cicco, Manuel Elias, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="14">
         <v>78167</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E83" t="s">
-        <v>231</v>
-      </c>
-      <c r="G83" t="s">
-        <v>231</v>
-      </c>
-      <c r="H83" t="s">
-        <v>231</v>
-      </c>
-      <c r="J83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="E83" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K83" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B83,1),"@2",C83,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78167,Muñoz Figueroa, Dalma Mariel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="14">
         <v>79573</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D84" t="s">
-        <v>231</v>
-      </c>
-      <c r="E84" t="s">
-        <v>231</v>
-      </c>
-      <c r="G84" t="s">
-        <v>231</v>
-      </c>
-      <c r="H84" t="s">
-        <v>231</v>
-      </c>
-      <c r="J84" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="D84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K84" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B84,1),"@2",C84,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79573,Mur Depetris, Celeste Ana, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="14">
         <v>75513</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D85" t="s">
-        <v>231</v>
-      </c>
-      <c r="E85" t="s">
-        <v>231</v>
-      </c>
-      <c r="G85" t="s">
-        <v>231</v>
-      </c>
-      <c r="H85" t="s">
-        <v>231</v>
-      </c>
-      <c r="J85" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="D85" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K85" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B85,1),"@2",C85,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75513,Nanzer, Manuel Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="14">
         <v>81093</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D86" t="s">
-        <v>231</v>
-      </c>
-      <c r="E86" t="s">
-        <v>231</v>
-      </c>
-      <c r="F86" t="s">
-        <v>231</v>
-      </c>
-      <c r="G86" t="s">
-        <v>231</v>
-      </c>
-      <c r="H86" t="s">
-        <v>231</v>
-      </c>
-      <c r="J86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="D86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K86" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B86,1),"@2",C86,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81093,Nelli, Isabella, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="14">
         <v>66264</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D87" t="s">
-        <v>231</v>
-      </c>
-      <c r="G87" t="s">
-        <v>231</v>
-      </c>
-      <c r="H87" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="D87" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K87" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B87,1),"@2",C87,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (66264,Nuñez, Jonathan Jesus, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="14">
         <v>76287</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D88" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88" t="s">
-        <v>231</v>
-      </c>
-      <c r="F88" t="s">
-        <v>231</v>
-      </c>
-      <c r="G88" t="s">
-        <v>231</v>
-      </c>
-      <c r="H88" t="s">
-        <v>231</v>
-      </c>
-      <c r="J88" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="D88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K88" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B88,1),"@2",C88,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76287,Oberto, Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="14">
         <v>80958</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D89" t="s">
-        <v>231</v>
-      </c>
-      <c r="F89" t="s">
-        <v>231</v>
-      </c>
-      <c r="G89" t="s">
-        <v>231</v>
-      </c>
-      <c r="H89" t="s">
-        <v>231</v>
-      </c>
-      <c r="J89" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B90" s="2">
+      <c r="D89" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K89" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B89,1),"@2",C89,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80958,Oliva Antonello, Valentina Luz, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="14">
         <v>78666</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D90" t="s">
-        <v>231</v>
-      </c>
-      <c r="E90" t="s">
-        <v>231</v>
-      </c>
-      <c r="G90" t="s">
-        <v>231</v>
-      </c>
-      <c r="H90" t="s">
-        <v>231</v>
-      </c>
-      <c r="J90" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="D90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K90" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B90,1),"@2",C90,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78666,Orellano, Maria Victoria, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="14">
         <v>79676</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D91" t="s">
-        <v>231</v>
-      </c>
-      <c r="E91" t="s">
-        <v>231</v>
-      </c>
-      <c r="F91" t="s">
-        <v>231</v>
-      </c>
-      <c r="G91" t="s">
-        <v>231</v>
-      </c>
-      <c r="H91" t="s">
-        <v>231</v>
-      </c>
-      <c r="J91" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="D91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K91" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B91,1),"@2",C91,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79676,Orgaz, Maria Lourdes, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="14">
         <v>80950</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D92" t="s">
-        <v>231</v>
-      </c>
-      <c r="E92" t="s">
-        <v>231</v>
-      </c>
-      <c r="G92" t="s">
-        <v>231</v>
-      </c>
-      <c r="H92" t="s">
-        <v>231</v>
-      </c>
-      <c r="J92" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="D92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K92" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B92,1),"@2",C92,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80950,Ozan, Juan Manuel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="14">
         <v>78775</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D93" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93" t="s">
-        <v>231</v>
-      </c>
-      <c r="G93" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="D93" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K93" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B93,1),"@2",C93,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78775,Paez Rey, Santiago Abel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="14">
         <v>81595</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F94" t="s">
-        <v>231</v>
-      </c>
-      <c r="G94" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="F94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K94" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B94,1),"@2",C94,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81595,Paez, Sabrina Gisel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="14">
         <v>78836</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D95" t="s">
-        <v>231</v>
-      </c>
-      <c r="E95" t="s">
-        <v>231</v>
-      </c>
-      <c r="F95" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" t="s">
-        <v>231</v>
-      </c>
-      <c r="H95" t="s">
-        <v>231</v>
-      </c>
-      <c r="J95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="D95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K95" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B95,1),"@2",C95,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78836,Pairetti, Lucia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="14">
         <v>81060</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D96" t="s">
-        <v>231</v>
-      </c>
-      <c r="E96" t="s">
-        <v>231</v>
-      </c>
-      <c r="F96" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" t="s">
-        <v>231</v>
-      </c>
-      <c r="H96" t="s">
-        <v>231</v>
-      </c>
-      <c r="J96" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="D96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K96" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B96,1),"@2",C96,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81060,Paniale Manentti, Sofia Marta, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="14">
         <v>75304</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D97" t="s">
-        <v>231</v>
-      </c>
-      <c r="E97" t="s">
-        <v>231</v>
-      </c>
-      <c r="F97" t="s">
-        <v>231</v>
-      </c>
-      <c r="G97" t="s">
-        <v>231</v>
-      </c>
-      <c r="H97" t="s">
-        <v>231</v>
-      </c>
-      <c r="J97" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="D97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K97" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B97,1),"@2",C97,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75304,Pavoni, Sofia Ailen, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="14">
         <v>79630</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D98" t="s">
-        <v>231</v>
-      </c>
-      <c r="E98" t="s">
-        <v>231</v>
-      </c>
-      <c r="F98" t="s">
-        <v>231</v>
-      </c>
-      <c r="G98" t="s">
-        <v>231</v>
-      </c>
-      <c r="H98" t="s">
-        <v>231</v>
-      </c>
-      <c r="J98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="D98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K98" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B98,1),"@2",C98,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79630,Pereyra, Belen Del Valle, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="14">
         <v>75303</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D99" t="s">
-        <v>231</v>
-      </c>
-      <c r="E99" t="s">
-        <v>231</v>
-      </c>
-      <c r="F99" t="s">
-        <v>231</v>
-      </c>
-      <c r="G99" t="s">
-        <v>231</v>
-      </c>
-      <c r="H99" t="s">
-        <v>231</v>
-      </c>
-      <c r="J99" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="D99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K99" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B99,1),"@2",C99,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75303,Pereyra, Natacha Denise, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="14">
         <v>79931</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D100" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" t="s">
-        <v>231</v>
-      </c>
-      <c r="G100" t="s">
-        <v>231</v>
-      </c>
-      <c r="H100" t="s">
-        <v>231</v>
-      </c>
-      <c r="J100" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="D100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K100" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B100,1),"@2",C100,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79931,Poma, Manuela, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="14">
         <v>78672</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D101" t="s">
-        <v>231</v>
-      </c>
-      <c r="E101" t="s">
-        <v>231</v>
-      </c>
-      <c r="F101" t="s">
-        <v>231</v>
-      </c>
-      <c r="G101" t="s">
-        <v>231</v>
-      </c>
-      <c r="H101" t="s">
-        <v>231</v>
-      </c>
-      <c r="J101" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="D101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K101" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B101,1),"@2",C101,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78672,Primavera, Camila, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="14">
         <v>80021</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D102" t="s">
-        <v>231</v>
-      </c>
-      <c r="E102" t="s">
-        <v>231</v>
-      </c>
-      <c r="F102" t="s">
-        <v>231</v>
-      </c>
-      <c r="G102" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="D102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K102" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B102,1),"@2",C102,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80021,Quinteros, Celeste Anahi, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="14">
         <v>79112</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D103" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" t="s">
-        <v>231</v>
-      </c>
-      <c r="F103" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" t="s">
-        <v>231</v>
-      </c>
-      <c r="H103" t="s">
-        <v>231</v>
-      </c>
-      <c r="J103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="D103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K103" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B103,1),"@2",C103,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79112,Quinteros, Moises Alejandro, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="14">
         <v>79229</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D104" t="s">
-        <v>231</v>
-      </c>
-      <c r="E104" t="s">
-        <v>231</v>
-      </c>
-      <c r="F104" t="s">
-        <v>231</v>
-      </c>
-      <c r="G104" t="s">
-        <v>231</v>
-      </c>
-      <c r="H104" t="s">
-        <v>231</v>
-      </c>
-      <c r="J104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="D104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K104" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B104,1),"@2",C104,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79229,Re, Angelina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="14">
         <v>80150</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D105" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" t="s">
-        <v>231</v>
-      </c>
-      <c r="F105" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" t="s">
-        <v>231</v>
-      </c>
-      <c r="H105" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="D105" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B105,1),"@2",C105,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80150,Reartes, Franco Nahuel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="14">
         <v>67126</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="K106" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B106,1),"@2",C106,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (67126,Rebasa, Florencia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="14">
         <v>79356</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D107" t="s">
-        <v>231</v>
-      </c>
-      <c r="E107" t="s">
-        <v>231</v>
-      </c>
-      <c r="F107" t="s">
-        <v>231</v>
-      </c>
-      <c r="G107" t="s">
-        <v>231</v>
-      </c>
-      <c r="H107" t="s">
-        <v>231</v>
-      </c>
-      <c r="J107" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="D107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K107" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B107,1),"@2",C107,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79356,Reguilo, Mauro Daniel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="14">
         <v>78325</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D108" t="s">
-        <v>231</v>
-      </c>
-      <c r="F108" t="s">
-        <v>231</v>
-      </c>
-      <c r="G108" t="s">
-        <v>231</v>
-      </c>
-      <c r="H108" t="s">
-        <v>231</v>
-      </c>
-      <c r="J108" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="D108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K108" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B108,1),"@2",C108,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78325,Revol Medrano, Joaquin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="14">
         <v>71190</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="K109" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B109,1),"@2",C109,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71190,Robledo, Franco Federico, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="14">
         <v>78646</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D110" t="s">
-        <v>231</v>
-      </c>
-      <c r="E110" t="s">
-        <v>231</v>
-      </c>
-      <c r="F110" t="s">
-        <v>231</v>
-      </c>
-      <c r="G110" t="s">
-        <v>231</v>
-      </c>
-      <c r="J110" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B111" s="2">
+      <c r="D110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K110" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B110,1),"@2",C110,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78646,Rocca, Josefina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="14">
         <v>51165</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D111" t="s">
-        <v>231</v>
-      </c>
-      <c r="E111" t="s">
-        <v>231</v>
-      </c>
-      <c r="F111" t="s">
-        <v>231</v>
-      </c>
-      <c r="G111" t="s">
-        <v>231</v>
-      </c>
-      <c r="J111" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="D111" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K111" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B111,1),"@2",C111,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (51165,Rodriguez, Gabriel Alejandro, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="14">
         <v>76105</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D112" t="s">
-        <v>231</v>
-      </c>
-      <c r="E112" t="s">
-        <v>231</v>
-      </c>
-      <c r="F112" t="s">
-        <v>231</v>
-      </c>
-      <c r="G112" t="s">
-        <v>231</v>
-      </c>
-      <c r="H112" t="s">
-        <v>231</v>
-      </c>
-      <c r="J112" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B113" s="2">
+      <c r="D112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K112" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B112,1),"@2",C112,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76105,Romero Zoppi, Mauricio Jesús, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="14">
         <v>78769</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D113" t="s">
-        <v>231</v>
-      </c>
-      <c r="E113" t="s">
-        <v>231</v>
-      </c>
-      <c r="F113" t="s">
-        <v>231</v>
-      </c>
-      <c r="G113" t="s">
-        <v>231</v>
-      </c>
-      <c r="H113" t="s">
-        <v>231</v>
-      </c>
-      <c r="J113" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B114" s="2">
+      <c r="D113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K113" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B113,1),"@2",C113,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78769,Romero, Abel Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="14">
         <v>81072</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D114" t="s">
-        <v>231</v>
-      </c>
-      <c r="E114" t="s">
-        <v>231</v>
-      </c>
-      <c r="F114" t="s">
-        <v>231</v>
-      </c>
-      <c r="G114" t="s">
-        <v>231</v>
-      </c>
-      <c r="H114" t="s">
-        <v>231</v>
-      </c>
-      <c r="J114" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B115" s="2">
+      <c r="D114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K114" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B114,1),"@2",C114,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81072,Romero, Gabriel Antonio, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="14">
         <v>79309</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D115" t="s">
-        <v>231</v>
-      </c>
-      <c r="E115" t="s">
-        <v>231</v>
-      </c>
-      <c r="F115" t="s">
-        <v>231</v>
-      </c>
-      <c r="G115" t="s">
-        <v>231</v>
-      </c>
-      <c r="J115" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="2">
+      <c r="D115" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K115" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B115,1),"@2",C115,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79309,Salas, Sebastian Carlos, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="14">
         <v>81498</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D116" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" t="s">
-        <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>231</v>
-      </c>
-      <c r="H116" t="s">
-        <v>231</v>
-      </c>
-      <c r="J116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B117" s="2">
+      <c r="D116" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K116" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B116,1),"@2",C116,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81498,Sanchez, Federico Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="14">
         <v>75653</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E117" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B118" s="2">
+      <c r="E117" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K117" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B117,1),"@2",C117,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75653,Sarmiento Herrera, Carolina Elizabeth, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="14">
         <v>79010</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D118" t="s">
-        <v>231</v>
-      </c>
-      <c r="E118" t="s">
-        <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>231</v>
-      </c>
-      <c r="G118" t="s">
-        <v>231</v>
-      </c>
-      <c r="H118" t="s">
-        <v>231</v>
-      </c>
-      <c r="J118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B119" s="2">
+      <c r="D118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K118" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B118,1),"@2",C118,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79010,Simeoni, Valentino, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="14">
         <v>80652</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D119" t="s">
-        <v>231</v>
-      </c>
-      <c r="E119" t="s">
-        <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>231</v>
-      </c>
-      <c r="G119" t="s">
-        <v>231</v>
-      </c>
-      <c r="H119" t="s">
-        <v>231</v>
-      </c>
-      <c r="J119" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B120" s="2">
+      <c r="D119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K119" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B119,1),"@2",C119,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80652,Similien, Berlander Shadji M, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="14">
         <v>80556</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D120" t="s">
-        <v>231</v>
-      </c>
-      <c r="E120" t="s">
-        <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" t="s">
-        <v>231</v>
-      </c>
-      <c r="H120" t="s">
-        <v>231</v>
-      </c>
-      <c r="J120" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="2">
+      <c r="D120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K120" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B120,1),"@2",C120,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80556,Sola, Sofia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" s="14">
         <v>78900</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D121" t="s">
-        <v>231</v>
-      </c>
-      <c r="E121" t="s">
-        <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>231</v>
-      </c>
-      <c r="G121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H121" t="s">
-        <v>231</v>
-      </c>
-      <c r="J121" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B122" s="2">
+      <c r="D121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K121" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B121,1),"@2",C121,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78900,Solano, Franco Javier, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" s="14">
         <v>79657</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D122" t="s">
-        <v>231</v>
-      </c>
-      <c r="E122" t="s">
-        <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>231</v>
-      </c>
-      <c r="G122" t="s">
-        <v>231</v>
-      </c>
-      <c r="H122" t="s">
-        <v>231</v>
-      </c>
-      <c r="J122" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B123" s="2">
+      <c r="D122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K122" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B122,1),"@2",C122,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79657,Taborda Ramirez, Ulises Damian, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="14">
         <v>77191</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E123" t="s">
-        <v>231</v>
-      </c>
-      <c r="F123" t="s">
-        <v>231</v>
-      </c>
-      <c r="G123" t="s">
-        <v>231</v>
-      </c>
-      <c r="H123" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B124" s="2">
+      <c r="E123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K123" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B123,1),"@2",C123,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77191,Taborda, Romina Elba Valentina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="14">
         <v>79629</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D124" t="s">
-        <v>231</v>
-      </c>
-      <c r="E124" t="s">
-        <v>231</v>
-      </c>
-      <c r="F124" t="s">
-        <v>231</v>
-      </c>
-      <c r="G124" t="s">
-        <v>231</v>
-      </c>
-      <c r="H124" t="s">
-        <v>231</v>
-      </c>
-      <c r="J124" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B125" s="2">
+      <c r="D124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K124" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B124,1),"@2",C124,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79629,Tapia Flores, Vanina Angie, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="14">
         <v>80554</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D125" t="s">
-        <v>231</v>
-      </c>
-      <c r="E125" t="s">
-        <v>231</v>
-      </c>
-      <c r="F125" t="s">
-        <v>231</v>
-      </c>
-      <c r="G125" t="s">
-        <v>231</v>
-      </c>
-      <c r="H125" t="s">
-        <v>231</v>
-      </c>
-      <c r="J125" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B126" s="2">
+      <c r="D125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K125" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B125,1),"@2",C125,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80554,Tello Salas, Ibar Agustin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="14">
         <v>75052</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D126" t="s">
-        <v>231</v>
-      </c>
-      <c r="E126" t="s">
-        <v>231</v>
-      </c>
-      <c r="F126" t="s">
-        <v>231</v>
-      </c>
-      <c r="G126" t="s">
-        <v>231</v>
-      </c>
-      <c r="H126" t="s">
-        <v>231</v>
-      </c>
-      <c r="J126" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="2">
+      <c r="D126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K126" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B126,1),"@2",C126,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75052,Touz, Juan Manuel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="14">
         <v>81092</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D127" t="s">
-        <v>231</v>
-      </c>
-      <c r="E127" t="s">
-        <v>231</v>
-      </c>
-      <c r="G127" t="s">
-        <v>231</v>
-      </c>
-      <c r="J127" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B128" s="2">
+      <c r="D127" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K127" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B127,1),"@2",C127,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81092,Trabucco, Joaquin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="14">
         <v>75246</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D128" t="s">
-        <v>231</v>
-      </c>
-      <c r="F128" t="s">
-        <v>231</v>
-      </c>
-      <c r="G128" t="s">
-        <v>231</v>
-      </c>
-      <c r="H128" t="s">
-        <v>231</v>
-      </c>
-      <c r="J128" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B129" s="2">
+      <c r="D128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K128" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B128,1),"@2",C128,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75246,Urquiza, Evelin Aimé del Valle, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" s="14">
         <v>79102</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D129" t="s">
-        <v>231</v>
-      </c>
-      <c r="E129" t="s">
-        <v>231</v>
-      </c>
-      <c r="F129" t="s">
-        <v>231</v>
-      </c>
-      <c r="G129" t="s">
-        <v>231</v>
-      </c>
-      <c r="H129" t="s">
-        <v>231</v>
-      </c>
-      <c r="J129" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B130" s="2">
+      <c r="D129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K129" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B129,1),"@2",C129,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79102,Velazquez, Lautaro, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="14">
         <v>80018</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D130" t="s">
-        <v>231</v>
-      </c>
-      <c r="E130" t="s">
-        <v>231</v>
-      </c>
-      <c r="F130" t="s">
-        <v>231</v>
-      </c>
-      <c r="G130" t="s">
-        <v>231</v>
-      </c>
-      <c r="H130" t="s">
-        <v>231</v>
-      </c>
-      <c r="J130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B131" s="2">
+      <c r="D130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K130" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B130,1),"@2",C130,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80018,Villarreal, Dana Sofia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" s="14">
         <v>80605</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B132" s="2">
+      <c r="K131" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B131,1),"@2",C131,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80605,Wainer, Iara Ariadna, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" s="14">
         <v>81611</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E132" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E132" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K132" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B132,1),"@2",C132,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81611,Yunes, Paula Andrea, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
@@ -4757,25 +5132,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="9" width="11" customWidth="1"/>
+    <col min="4" max="9" width="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>228</v>
       </c>
@@ -4806,8 +5183,22 @@
       <c r="J1" s="7">
         <v>43238</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>230</v>
       </c>
@@ -4835,8 +5226,12 @@
       <c r="J2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B2,1),"@2",C2,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80409,Aguado, Ana Carolina, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -4846,8 +5241,12 @@
       <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B3,1),"@2",C3,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80692,Aguero, Nemesis Ayelen, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -4875,8 +5274,12 @@
       <c r="J4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B4,1),"@2",C4,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78984,Aldeco Molina, Juan Ignacio, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>230</v>
       </c>
@@ -4898,8 +5301,12 @@
       <c r="H5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B5,1),"@2",C5,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81385,Aliendro, Javier Ignacio, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>230</v>
       </c>
@@ -4909,8 +5316,12 @@
       <c r="C6" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B6,1),"@2",C6,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (54362,Altamirano, Ricardo Gaston, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>230</v>
       </c>
@@ -4932,8 +5343,12 @@
       <c r="G7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B7,1),"@2",C7,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74804,Antoniazzi, Cristian Gaston, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>230</v>
       </c>
@@ -4949,8 +5364,12 @@
       <c r="G8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B8,1),"@2",C8,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (70108,Arce, Rocio Anahi, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>230</v>
       </c>
@@ -4975,8 +5394,12 @@
       <c r="J9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B9,1),"@2",C9,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81319,Aresqueta, Juan Esteban, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>230</v>
       </c>
@@ -5004,8 +5427,12 @@
       <c r="J10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B10,1),"@2",C10,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79794,Atencio, Federico, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>230</v>
       </c>
@@ -5033,8 +5460,12 @@
       <c r="J11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B11,1),"@2",C11,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78275,Balan, Camila Ariana, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>230</v>
       </c>
@@ -5062,8 +5493,12 @@
       <c r="J12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B12,1),"@2",C12,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79329,Barcia, Luciana, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>230</v>
       </c>
@@ -5088,8 +5523,12 @@
       <c r="J13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B13,1),"@2",C13,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77023,Benitez, Alain Patric, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>230</v>
       </c>
@@ -5117,8 +5556,12 @@
       <c r="J14" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B14,1),"@2",C14,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78941,Bertossi, Agostina, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>230</v>
       </c>
@@ -5146,8 +5589,12 @@
       <c r="J15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B15,1),"@2",C15,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79437,Burgoa Cortez, Nicole, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>230</v>
       </c>
@@ -5172,8 +5619,12 @@
       <c r="J16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B16,1),"@2",C16,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78383,Bustos, Abril Rocio, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>230</v>
       </c>
@@ -5192,8 +5643,12 @@
       <c r="G17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B17,1),"@2",C17,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79947,Cabrera Burgos, Daniel Ezequiel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -5221,8 +5676,12 @@
       <c r="J18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B18,1),"@2",C18,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80212,Cacciavillani, Filipo, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>230</v>
       </c>
@@ -5232,8 +5691,12 @@
       <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B19,1),"@2",C19,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (54398,Caceres, Nicolas Horacio, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>230</v>
       </c>
@@ -5261,8 +5724,12 @@
       <c r="J20" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B20,1),"@2",C20,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80798,Callejo, Lina Gisela, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>230</v>
       </c>
@@ -5272,8 +5739,12 @@
       <c r="C21" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B21,1),"@2",C21,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (72940,Camporeale, Nicolas Eric, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>230</v>
       </c>
@@ -5283,8 +5754,12 @@
       <c r="C22" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B22,1),"@2",C22,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79193,Castillo Miranda, Maria Paula, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>230</v>
       </c>
@@ -5306,8 +5781,12 @@
       <c r="J23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B23,1),"@2",C23,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81049,Castro, Daniela Veronica, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>230</v>
       </c>
@@ -5335,8 +5814,12 @@
       <c r="J24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B24,1),"@2",C24,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78650,Catalano Tortelli, Camila, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>230</v>
       </c>
@@ -5364,8 +5847,12 @@
       <c r="J25" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B25,1),"@2",C25,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79447,Cavatorta, Blas, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>230</v>
       </c>
@@ -5393,8 +5880,12 @@
       <c r="J26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B26,1),"@2",C26,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78736,Cavillon, Maria Azul, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>230</v>
       </c>
@@ -5422,8 +5913,12 @@
       <c r="J27" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B27,1),"@2",C27,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79960,Cazon Revollo, Facundo Miguel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>230</v>
       </c>
@@ -5433,8 +5928,12 @@
       <c r="C28" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B28,1),"@2",C28,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (51605,Cortabarria, Joaquin Emiliano, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>230</v>
       </c>
@@ -5462,8 +5961,12 @@
       <c r="J29" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B29,1),"@2",C29,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80986,Coscolla, Maximiliano Luis, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>230</v>
       </c>
@@ -5485,8 +5988,12 @@
       <c r="J30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B30,1),"@2",C30,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79736,Crespin, Pablo Agustin, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>230</v>
       </c>
@@ -5514,8 +6021,12 @@
       <c r="J31" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B31,1),"@2",C31,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78347,Cristin, Dana Martina, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>230</v>
       </c>
@@ -5543,8 +6054,12 @@
       <c r="J32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B32,1),"@2",C32,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78534,Di Chiazza, Lisandro Agustin, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>230</v>
       </c>
@@ -5572,8 +6087,12 @@
       <c r="J33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B33,1),"@2",C33,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80301,Di Terlizzi, Dana Guadalupe, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>230</v>
       </c>
@@ -5601,8 +6120,12 @@
       <c r="J34" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B34,1),"@2",C34,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79927,Dorvilus, Djems, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>230</v>
       </c>
@@ -5627,8 +6150,12 @@
       <c r="J35" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B35,1),"@2",C35,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78414,Ferrigno, Maria Nazarena, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>230</v>
       </c>
@@ -5653,8 +6180,12 @@
       <c r="J36" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B36,1),"@2",C36,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71092,Figueroa, Nicolás Ezequiel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>230</v>
       </c>
@@ -5676,8 +6207,12 @@
       <c r="J37" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B37,1),"@2",C37,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77686,Franchi, Juan Gabriel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>230</v>
       </c>
@@ -5705,8 +6240,12 @@
       <c r="J38" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B38,1),"@2",C38,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76238,Garcia, Catalina, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -5731,8 +6270,12 @@
       <c r="H39" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B39,1),"@2",C39,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (65002,García, Lautaro Hernán, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>230</v>
       </c>
@@ -5760,8 +6303,12 @@
       <c r="J40" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B40,1),"@2",C40,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74217,Garcia, Sebastian Eduardo, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>230</v>
       </c>
@@ -5786,8 +6333,12 @@
       <c r="J41" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B41,1),"@2",C41,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80144,Ghibaudo Lopez, Rosario Ayelen, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>230</v>
       </c>
@@ -5797,8 +6348,12 @@
       <c r="C42" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B42,1),"@2",C42,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (69978,Ghigo, Roxana del Valle, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>230</v>
       </c>
@@ -5820,8 +6375,12 @@
       <c r="G43" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B43,1),"@2",C43,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77793,Israel, Kief Weler Stevensky, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>230</v>
       </c>
@@ -5846,8 +6405,12 @@
       <c r="J44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B44,1),"@2",C44,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79354,Israel, Mudge Murdrelle, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>230</v>
       </c>
@@ -5866,8 +6429,12 @@
       <c r="H45" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B45,1),"@2",C45,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (64624,Katogui, Agustin, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>230</v>
       </c>
@@ -5895,8 +6462,12 @@
       <c r="J46" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B46,1),"@2",C46,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74820,Laquiz Abraham, Amiel Ernesto, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>230</v>
       </c>
@@ -5912,8 +6483,12 @@
       <c r="F47" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B47,1),"@2",C47,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77376,Leguiza, Florencia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>230</v>
       </c>
@@ -5935,8 +6510,12 @@
       <c r="G48" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B48,1),"@2",C48,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (73197,Leon Tolentino, Thalia Jhanet, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>230</v>
       </c>
@@ -5958,8 +6537,12 @@
       <c r="J49" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B49,1),"@2",C49,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80192,Lescano, Malena Stefanía, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>230</v>
       </c>
@@ -5981,8 +6564,12 @@
       <c r="J50" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B50,1),"@2",C50,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77735,Madrid Zavaley, Macarena Daniela, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>230</v>
       </c>
@@ -6010,8 +6597,12 @@
       <c r="J51" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B51,1),"@2",C51,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78570,Maiz Ricaldez, Kevin Arnold, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>230</v>
       </c>
@@ -6033,8 +6624,12 @@
       <c r="H52" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B52,1),"@2",C52,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81388,Mandolini, Enzo Guido, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>230</v>
       </c>
@@ -6044,8 +6639,12 @@
       <c r="C53" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B53,1),"@2",C53,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71906,Marin Acosta, Francisco, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>230</v>
       </c>
@@ -6055,8 +6654,12 @@
       <c r="C54" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B54,1),"@2",C54,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81524,Mayer, Alfredo Gustavo, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
@@ -6084,8 +6687,12 @@
       <c r="J55" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B55,1),"@2",C55,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80335,Mayon, Santiago Ignacio, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>230</v>
       </c>
@@ -6113,8 +6720,12 @@
       <c r="J56" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B56,1),"@2",C56,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78861,Medina Quinteros, Alexandra, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>230</v>
       </c>
@@ -6142,8 +6753,12 @@
       <c r="J57" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B57,1),"@2",C57,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78526,Michalik Malara, Sathya Cecilia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>230</v>
       </c>
@@ -6168,8 +6783,12 @@
       <c r="J58" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B58,1),"@2",C58,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75720,Misericordia, Hector Leandro, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>230</v>
       </c>
@@ -6197,8 +6816,12 @@
       <c r="J59" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B59,1),"@2",C59,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79168,Montenegro, Mayra Cecilia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>230</v>
       </c>
@@ -6208,8 +6831,12 @@
       <c r="C60" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B60,1),"@2",C60,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75701,Moran, Maria Belén, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>230</v>
       </c>
@@ -6219,8 +6846,12 @@
       <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B61,1),"@2",C61,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (61776,Moyano, Jessica Patricia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>230</v>
       </c>
@@ -6230,8 +6861,12 @@
       <c r="C62" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B62,1),"@2",C62,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (70107,Muñoz Rivadero, Maria De Los Angeles, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>230</v>
       </c>
@@ -6253,8 +6888,12 @@
       <c r="H63" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B63,1),"@2",C63,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78916,Navarro Alonso, Sofía, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>230</v>
       </c>
@@ -6282,8 +6921,12 @@
       <c r="J64" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B64,1),"@2",C64,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79242,Nuñez, Guadalupe Milagros, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>230</v>
       </c>
@@ -6293,8 +6936,12 @@
       <c r="C65" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B65,1),"@2",C65,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77591,Nuñez, Hector Mateo, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>230</v>
       </c>
@@ -6304,8 +6951,12 @@
       <c r="C66" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B66,1),"@2",C66,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80025,Ochoa, Alejandro Nicolas, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>230</v>
       </c>
@@ -6333,8 +6984,12 @@
       <c r="J67" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B67,1),"@2",C67,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79218,Ortega, Cecilia Maria, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>230</v>
       </c>
@@ -6359,8 +7014,12 @@
       <c r="H68" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B68,1),"@2",C68,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80142,Ottosen, Fiona Lucia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>230</v>
       </c>
@@ -6382,8 +7041,12 @@
       <c r="H69" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B69,1),"@2",C69,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78985,Pacheco Luna, Maria Constanza, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>230</v>
       </c>
@@ -6411,8 +7074,12 @@
       <c r="J70" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B70,1),"@2",C70,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80607,Pedroso, Cecilia Florencia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>230</v>
       </c>
@@ -6440,8 +7107,12 @@
       <c r="J71" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B71,1),"@2",C71,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78734,Peralta, Tomas Daniel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>230</v>
       </c>
@@ -6466,8 +7137,12 @@
       <c r="J72" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B72,1),"@2",C72,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80318,Peretti, Fabricio Alejandro, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>230</v>
       </c>
@@ -6495,8 +7170,12 @@
       <c r="J73" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B73,1),"@2",C73,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71241,Perotti Bernardini, Robertino, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>230</v>
       </c>
@@ -6521,8 +7200,12 @@
       <c r="J74" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B74,1),"@2",C74,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79888,Pierre Louis, Virginia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>230</v>
       </c>
@@ -6550,8 +7233,12 @@
       <c r="J75" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B75,1),"@2",C75,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78556,Pistone, Ezequiel Ivan, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>230</v>
       </c>
@@ -6573,8 +7260,12 @@
       <c r="H76" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B76,1),"@2",C76,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79422,Pollastrinni, Enzo Maximiliano, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>230</v>
       </c>
@@ -6602,8 +7293,12 @@
       <c r="J77" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B77,1),"@2",C77,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79454,Prosdocimo, Celeste, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>230</v>
       </c>
@@ -6631,8 +7326,12 @@
       <c r="J78" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B78,1),"@2",C78,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78529,Pussetto, Victoria Isabel, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>230</v>
       </c>
@@ -6660,8 +7359,12 @@
       <c r="J79" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B79,1),"@2",C79,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79279,Rodriguez, Sofia Luciana, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>230</v>
       </c>
@@ -6674,8 +7377,12 @@
       <c r="J80" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B80,1),"@2",C80,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78929,Rojas Pervetic, Antonio Hector Domingo, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>230</v>
       </c>
@@ -6703,8 +7410,12 @@
       <c r="J81" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B81,1),"@2",C81,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78392,Ruiz, Candela Milagros, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>230</v>
       </c>
@@ -6729,8 +7440,12 @@
       <c r="J82" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B82,1),"@2",C82,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (73198,Saavedra Villarreal, Mariel Daniela Victoria, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>230</v>
       </c>
@@ -6755,8 +7470,12 @@
       <c r="J83" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B83,1),"@2",C83,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71681,Sanchez, Maira Lelis, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>230</v>
       </c>
@@ -6784,8 +7503,12 @@
       <c r="J84" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B84,1),"@2",C84,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76623,Sarmiento, Romina Julia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>230</v>
       </c>
@@ -6810,8 +7533,12 @@
       <c r="J85" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B85,1),"@2",C85,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80432,Sireix, Rocio Camila, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>230</v>
       </c>
@@ -6836,8 +7563,12 @@
       <c r="J86" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B86,1),"@2",C86,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (69137,Suarez, Augusto Alejandro, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>230</v>
       </c>
@@ -6862,8 +7593,12 @@
       <c r="H87" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B87,1),"@2",C87,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78477,Tornato, Sofia Milagros, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>230</v>
       </c>
@@ -6891,8 +7626,12 @@
       <c r="J88" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B88,1),"@2",C88,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80366,Torres Reigosa, Alvaro, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>230</v>
       </c>
@@ -6920,8 +7659,12 @@
       <c r="J89" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B89,1),"@2",C89,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75474,Torres, Sofía Helena, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>230</v>
       </c>
@@ -6949,8 +7692,12 @@
       <c r="J90" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B90,1),"@2",C90,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79261,Velazquez, Laura Natalia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>230</v>
       </c>
@@ -6960,8 +7707,12 @@
       <c r="C91" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B91,1),"@2",C91,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (64187,Vera Romero, Debora Cynthia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>230</v>
       </c>
@@ -6980,8 +7731,12 @@
       <c r="G92" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B92,1),"@2",C92,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78445,Vera, Camila Jenifer, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>230</v>
       </c>
@@ -7000,8 +7755,12 @@
       <c r="H93" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B93,1),"@2",C93,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (59553,Vilchez, Jeremias Adrian, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>230</v>
       </c>
@@ -7029,8 +7788,12 @@
       <c r="J94" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B94,1),"@2",C94,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80650,Vincent, Clara Heliette, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>230</v>
       </c>
@@ -7058,8 +7821,12 @@
       <c r="J95" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B95,1),"@2",C95,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78396,Viscarra Sanchez, Rocio Agostina, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>230</v>
       </c>
@@ -7087,8 +7854,12 @@
       <c r="J96" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K96" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B96,1),"@2",C96,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79660,Wismer, Kimberly Patricia, 2 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>230</v>
       </c>
@@ -7100,6 +7871,10 @@
       </c>
       <c r="D97" t="s">
         <v>231</v>
+      </c>
+      <c r="K97" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B97,1),"@2",C97,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79979,Yapura, Alvaro Alexis, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
+++ b/Archivos Varios/Reg_Integrac_I_2018-Alumnos.xlsx
@@ -1130,15 +1130,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="4" max="10" width="11" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1173,6 +1173,9 @@
       <c r="J1" s="11">
         <v>43238</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1199,8 +1202,9 @@
       <c r="J2" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>237</v>
+      <c r="K2" s="12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(K$1,"@1",B2,1),"@2",C2,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78932,Acosta Villafañe, Ania Micaela, 1 , 3, null,'01/04/2018',0)</v>
       </c>
       <c r="Q2" s="15"/>
     </row>
@@ -1229,6 +1233,10 @@
       <c r="J3" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K3" s="12" t="str">
+        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(SUBSTITUTE(K$1,"@1",B3,1),"@2",C3,1)</f>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78339,Aizpeolea Gerbaudo, Francisco, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1259,6 +1267,10 @@
       <c r="J4" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75778,Alamo, María Victoria, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1288,6 +1300,10 @@
       <c r="J5" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79022,Allende Bean, Francisco, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1309,6 +1325,10 @@
       <c r="H6" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78519,Alustiza Cisneros, Lucas Federico, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1336,6 +1356,10 @@
       <c r="J7" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80203,Alvarez Quevedo, Maria Constanza, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,6 +1390,10 @@
       <c r="J8" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78839,Angeleri, Lucia Sol, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1396,6 +1424,10 @@
       <c r="J9" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80078,Arfuch, Sofia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1425,6 +1457,10 @@
       <c r="J10" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78703,Ayala Rodriguez, Merly Sara, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1454,6 +1490,10 @@
       <c r="J11" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78131,Bastias, Valentina Nazarena, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1483,6 +1523,10 @@
       <c r="J12" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (72596,Basualdo Ponce, Melanie Janet, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1512,6 +1556,10 @@
       <c r="J13" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78788,Battistelli, Francisco, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1538,6 +1586,10 @@
       <c r="H14" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75269,Bazan, María Victoria, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -1564,6 +1616,10 @@
       <c r="J15" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79524,Bazan, Tomas Federico, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1581,8 +1637,12 @@
       <c r="F16" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78381,Biglione, Marco, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>229</v>
       </c>
@@ -1610,8 +1670,12 @@
       <c r="J17" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80411,Blanco Heil, Abril Martina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>229</v>
       </c>
@@ -1627,8 +1691,12 @@
       <c r="G18" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78515,Brambilla, Bruno Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>229</v>
       </c>
@@ -1647,8 +1715,12 @@
       <c r="J19" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (48658,Brizuela, Nicolas Ariel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>229</v>
       </c>
@@ -1658,8 +1730,12 @@
       <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (57649,Brola, Camila, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>236</v>
       </c>
@@ -1672,8 +1748,12 @@
       <c r="G21" s="18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79364,Bulacio, Daniel Alberto, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>229</v>
       </c>
@@ -1701,8 +1781,12 @@
       <c r="J22" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78521,Bustamante Murua, Brisa Daniela, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>229</v>
       </c>
@@ -1727,8 +1811,12 @@
       <c r="H23" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79121,Cabral, Julieta Candelaria, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>229</v>
       </c>
@@ -1741,8 +1829,12 @@
       <c r="H24" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77322,Cagliero, Josefina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>229</v>
       </c>
@@ -1752,8 +1844,12 @@
       <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (59379,Calderon, Julieta, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>229</v>
       </c>
@@ -1781,8 +1877,12 @@
       <c r="J26" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81586,Calvo, Matias Adrian, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>229</v>
       </c>
@@ -1807,8 +1907,12 @@
       <c r="J27" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79182,Carrera Calderon, Emanuel Alejandro, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>229</v>
       </c>
@@ -1836,8 +1940,12 @@
       <c r="J28" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78479,Carrizo Rodriguez, Juan Ignacio, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>229</v>
       </c>
@@ -1856,8 +1964,12 @@
       <c r="H29" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (63215,Celiz, Federico Elvio, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>229</v>
       </c>
@@ -1882,8 +1994,12 @@
       <c r="J30" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79798,Cervigni, Ana Clara, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>229</v>
       </c>
@@ -1905,8 +2021,12 @@
       <c r="J31" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (70593,Chialvo, Maria Paula, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>229</v>
       </c>
@@ -1934,6 +2054,10 @@
       <c r="J32" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78492,Conti, Lucia, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
@@ -1963,6 +2087,10 @@
       <c r="J33" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78617,Correa, Clementina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -1974,6 +2102,10 @@
       <c r="C34" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="K34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (69416,Corsi, Carlos Matias, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -2003,6 +2135,10 @@
       <c r="J35" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79270,Cortese, Lucio Martin, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -2032,6 +2168,10 @@
       <c r="J36" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75946,Costa, Lourdes Grisel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -2058,6 +2198,10 @@
       <c r="J37" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81369,Costantin, Nayeiv Emir, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -2087,6 +2231,10 @@
       <c r="J38" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79526,De Alessandro, Adriel Joab, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
@@ -2110,6 +2258,10 @@
       <c r="G39" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74032,De Moraes, Karen Yanina, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -2133,6 +2285,10 @@
       <c r="J40" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79638,Demichelis, Lara, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -2150,6 +2306,10 @@
       <c r="E41" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71002,Diaz Castellanos, Camila Noel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -2170,6 +2330,10 @@
       <c r="H42" s="12" t="s">
         <v>231</v>
       </c>
+      <c r="K42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81596,Echazu Breppe, Nicolás Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
+      </c>
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -2197,7 +2361,7 @@
         <v>231</v>
       </c>
       <c r="K43" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B43,1),"@2",C43,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79131,Ergo, Renata, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2221,7 +2385,7 @@
         <v>231</v>
       </c>
       <c r="K44" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B44,1),"@2",C44,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80365,Farrell, Aylen, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2254,7 +2418,7 @@
         <v>231</v>
       </c>
       <c r="K45" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B45,1),"@2",C45,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79458,Ferreyra Romano, Valentina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2287,7 +2451,7 @@
         <v>231</v>
       </c>
       <c r="K46" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B46,1),"@2",C46,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78372,Ferreyra, Carolina Jackeline, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2320,7 +2484,7 @@
         <v>231</v>
       </c>
       <c r="K47" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B47,1),"@2",C47,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76622,Fiant, Valeria Viviana, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2353,7 +2517,7 @@
         <v>231</v>
       </c>
       <c r="K48" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B48,1),"@2",C48,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79994,Flores, Maria Victoria, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2383,7 +2547,7 @@
         <v>231</v>
       </c>
       <c r="K49" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B49,1),"@2",C49,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79571,Forner, Franco Antonio, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2416,7 +2580,7 @@
         <v>231</v>
       </c>
       <c r="K50" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B50,1),"@2",C50,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78469,Garcia Reggio, Sofia Agustina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2449,7 +2613,7 @@
         <v>231</v>
       </c>
       <c r="K51" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B51,1),"@2",C51,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78759,Giannantonio, Ximena Azul, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2482,7 +2646,7 @@
         <v>231</v>
       </c>
       <c r="K52" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B52,1),"@2",C52,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80239,Gianoboli, Bruno Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2515,7 +2679,7 @@
         <v>231</v>
       </c>
       <c r="K53" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B53,1),"@2",C53,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80800,Gigena Appolonio, Nazarena Luz, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2548,7 +2712,7 @@
         <v>231</v>
       </c>
       <c r="K54" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B54,1),"@2",C54,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76330,Gimenez Hüppi, Maria Agustina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2572,7 +2736,7 @@
         <v>231</v>
       </c>
       <c r="K55" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B55,1),"@2",C55,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81088,Gonzalez Yatel, Deborah Lucrecia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2602,7 +2766,7 @@
         <v>231</v>
       </c>
       <c r="K56" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B56,1),"@2",C56,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79628,Guerra, Luciana Ines, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2635,7 +2799,7 @@
         <v>231</v>
       </c>
       <c r="K57" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B57,1),"@2",C57,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80037,Heredia Maza, Victoria Ariadna, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2668,7 +2832,7 @@
         <v>231</v>
       </c>
       <c r="K58" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B58,1),"@2",C58,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78915,Irazoque, Antonella, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2701,7 +2865,7 @@
         <v>231</v>
       </c>
       <c r="K59" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B59,1),"@2",C59,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79023,Juarez, Mayco Adrian, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2731,7 +2895,7 @@
         <v>231</v>
       </c>
       <c r="K60" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B60,1),"@2",C60,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79589,Junco, Marco Simon, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2761,7 +2925,7 @@
         <v>231</v>
       </c>
       <c r="K61" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B61,1),"@2",C61,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79427,Kalas Gimenez, Lucia Constanza, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2794,7 +2958,7 @@
         <v>231</v>
       </c>
       <c r="K62" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B62,1),"@2",C62,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79529,Krumpholz, Dante, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2824,7 +2988,7 @@
         <v>231</v>
       </c>
       <c r="K63" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B63,1),"@2",C63,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79114,Ledesmas, Hernan Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2857,7 +3021,7 @@
         <v>231</v>
       </c>
       <c r="K64" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B64,1),"@2",C64,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81075,Leones, Paula Lucia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2890,7 +3054,7 @@
         <v>231</v>
       </c>
       <c r="K65" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B65,1),"@2",C65,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80824,Lerda, Martin Lorenzo, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2923,7 +3087,7 @@
         <v>231</v>
       </c>
       <c r="K66" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B66,1),"@2",C66,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79674,Levrino, Agustina Celina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2953,7 +3117,7 @@
         <v>231</v>
       </c>
       <c r="K67" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B67,1),"@2",C67,1)</f>
+        <f t="shared" ref="K67:K130" si="1">SUBSTITUTE(SUBSTITUTE(K$1,"@1",B67,1),"@2",C67,1)</f>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80408,Lorello, Angel Lautaro, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -2974,7 +3138,7 @@
         <v>231</v>
       </c>
       <c r="K68" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B68,1),"@2",C68,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81522,Lucero Narvaez, Lourdes Fernanda, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3007,7 +3171,7 @@
         <v>231</v>
       </c>
       <c r="K69" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B69,1),"@2",C69,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (67043,Lucero, Brenda Ayelen, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3040,7 +3204,7 @@
         <v>231</v>
       </c>
       <c r="K70" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B70,1),"@2",C70,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79086,Martinez Garbarino, Macarena, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3055,7 +3219,7 @@
         <v>68</v>
       </c>
       <c r="K71" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B71,1),"@2",C71,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77603,Martinez, Rodrigo Hernan, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3085,7 +3249,7 @@
         <v>231</v>
       </c>
       <c r="K72" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B72,1),"@2",C72,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75984,Mazzieri, Nazarena Azul, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3118,7 +3282,7 @@
         <v>231</v>
       </c>
       <c r="K73" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B73,1),"@2",C73,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78925,Medina, Camila Mariel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3133,7 +3297,7 @@
         <v>71</v>
       </c>
       <c r="K74" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B74,1),"@2",C74,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78111,Mendez, Tomás Antonio, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3166,7 +3330,7 @@
         <v>231</v>
       </c>
       <c r="K75" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B75,1),"@2",C75,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78378,Mendizabal, Santiago Manuel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3199,7 +3363,7 @@
         <v>231</v>
       </c>
       <c r="K76" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B76,1),"@2",C76,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78999,Menem, Ariana Guadalupe, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3232,7 +3396,7 @@
         <v>231</v>
       </c>
       <c r="K77" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B77,1),"@2",C77,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79574,Mikleg, Micaela Soledad, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3265,7 +3429,7 @@
         <v>231</v>
       </c>
       <c r="K78" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B78,1),"@2",C78,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78290,Milano, Andres Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3298,7 +3462,7 @@
         <v>231</v>
       </c>
       <c r="K79" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B79,1),"@2",C79,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78560,Mirolo, Maria Agostina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3328,7 +3492,7 @@
         <v>231</v>
       </c>
       <c r="K80" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B80,1),"@2",C80,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80308,Molina, Rocio Belen, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3343,7 +3507,7 @@
         <v>78</v>
       </c>
       <c r="K81" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B81,1),"@2",C81,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77842,Monticelli, Gina Melisa, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3358,7 +3522,7 @@
         <v>79</v>
       </c>
       <c r="K82" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B82,1),"@2",C82,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77347,Moreira de Cicco, Manuel Elias, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3385,7 +3549,7 @@
         <v>231</v>
       </c>
       <c r="K83" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B83,1),"@2",C83,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78167,Muñoz Figueroa, Dalma Mariel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3415,7 +3579,7 @@
         <v>231</v>
       </c>
       <c r="K84" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B84,1),"@2",C84,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79573,Mur Depetris, Celeste Ana, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3445,7 +3609,7 @@
         <v>231</v>
       </c>
       <c r="K85" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B85,1),"@2",C85,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75513,Nanzer, Manuel Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3478,7 +3642,7 @@
         <v>231</v>
       </c>
       <c r="K86" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B86,1),"@2",C86,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81093,Nelli, Isabella, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3502,7 +3666,7 @@
         <v>231</v>
       </c>
       <c r="K87" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B87,1),"@2",C87,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (66264,Nuñez, Jonathan Jesus, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3535,7 +3699,7 @@
         <v>231</v>
       </c>
       <c r="K88" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B88,1),"@2",C88,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76287,Oberto, Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3565,7 +3729,7 @@
         <v>231</v>
       </c>
       <c r="K89" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B89,1),"@2",C89,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80958,Oliva Antonello, Valentina Luz, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3595,7 +3759,7 @@
         <v>231</v>
       </c>
       <c r="K90" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B90,1),"@2",C90,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78666,Orellano, Maria Victoria, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3628,7 +3792,7 @@
         <v>231</v>
       </c>
       <c r="K91" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B91,1),"@2",C91,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79676,Orgaz, Maria Lourdes, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3658,7 +3822,7 @@
         <v>231</v>
       </c>
       <c r="K92" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B92,1),"@2",C92,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80950,Ozan, Juan Manuel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3682,7 +3846,7 @@
         <v>231</v>
       </c>
       <c r="K93" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B93,1),"@2",C93,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78775,Paez Rey, Santiago Abel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3703,7 +3867,7 @@
         <v>231</v>
       </c>
       <c r="K94" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B94,1),"@2",C94,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81595,Paez, Sabrina Gisel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3736,7 +3900,7 @@
         <v>231</v>
       </c>
       <c r="K95" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B95,1),"@2",C95,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78836,Pairetti, Lucia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3769,7 +3933,7 @@
         <v>231</v>
       </c>
       <c r="K96" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B96,1),"@2",C96,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81060,Paniale Manentti, Sofia Marta, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3802,7 +3966,7 @@
         <v>231</v>
       </c>
       <c r="K97" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B97,1),"@2",C97,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75304,Pavoni, Sofia Ailen, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3835,7 +3999,7 @@
         <v>231</v>
       </c>
       <c r="K98" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B98,1),"@2",C98,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79630,Pereyra, Belen Del Valle, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3868,7 +4032,7 @@
         <v>231</v>
       </c>
       <c r="K99" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B99,1),"@2",C99,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75303,Pereyra, Natacha Denise, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3901,7 +4065,7 @@
         <v>231</v>
       </c>
       <c r="K100" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B100,1),"@2",C100,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79931,Poma, Manuela, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3934,7 +4098,7 @@
         <v>231</v>
       </c>
       <c r="K101" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B101,1),"@2",C101,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78672,Primavera, Camila, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3964,7 +4128,7 @@
         <v>231</v>
       </c>
       <c r="K102" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B102,1),"@2",C102,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80021,Quinteros, Celeste Anahi, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -3997,7 +4161,7 @@
         <v>231</v>
       </c>
       <c r="K103" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B103,1),"@2",C103,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79112,Quinteros, Moises Alejandro, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4030,7 +4194,7 @@
         <v>231</v>
       </c>
       <c r="K104" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B104,1),"@2",C104,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79229,Re, Angelina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4060,7 +4224,7 @@
         <v>231</v>
       </c>
       <c r="K105" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B105,1),"@2",C105,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80150,Reartes, Franco Nahuel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4075,7 +4239,7 @@
         <v>103</v>
       </c>
       <c r="K106" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B106,1),"@2",C106,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (67126,Rebasa, Florencia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4108,7 +4272,7 @@
         <v>231</v>
       </c>
       <c r="K107" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B107,1),"@2",C107,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79356,Reguilo, Mauro Daniel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4138,7 +4302,7 @@
         <v>231</v>
       </c>
       <c r="K108" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B108,1),"@2",C108,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78325,Revol Medrano, Joaquin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4153,7 +4317,7 @@
         <v>106</v>
       </c>
       <c r="K109" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B109,1),"@2",C109,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71190,Robledo, Franco Federico, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4183,7 +4347,7 @@
         <v>231</v>
       </c>
       <c r="K110" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B110,1),"@2",C110,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78646,Rocca, Josefina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4213,7 +4377,7 @@
         <v>231</v>
       </c>
       <c r="K111" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B111,1),"@2",C111,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (51165,Rodriguez, Gabriel Alejandro, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4246,7 +4410,7 @@
         <v>231</v>
       </c>
       <c r="K112" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B112,1),"@2",C112,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76105,Romero Zoppi, Mauricio Jesús, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4279,7 +4443,7 @@
         <v>231</v>
       </c>
       <c r="K113" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B113,1),"@2",C113,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78769,Romero, Abel Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4312,7 +4476,7 @@
         <v>231</v>
       </c>
       <c r="K114" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B114,1),"@2",C114,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81072,Romero, Gabriel Antonio, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4342,7 +4506,7 @@
         <v>231</v>
       </c>
       <c r="K115" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B115,1),"@2",C115,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79309,Salas, Sebastian Carlos, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4372,7 +4536,7 @@
         <v>231</v>
       </c>
       <c r="K116" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B116,1),"@2",C116,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81498,Sanchez, Federico Ezequiel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4390,7 +4554,7 @@
         <v>231</v>
       </c>
       <c r="K117" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B117,1),"@2",C117,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75653,Sarmiento Herrera, Carolina Elizabeth, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4423,7 +4587,7 @@
         <v>231</v>
       </c>
       <c r="K118" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B118,1),"@2",C118,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79010,Simeoni, Valentino, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4456,7 +4620,7 @@
         <v>231</v>
       </c>
       <c r="K119" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B119,1),"@2",C119,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80652,Similien, Berlander Shadji M, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4489,7 +4653,7 @@
         <v>231</v>
       </c>
       <c r="K120" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B120,1),"@2",C120,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80556,Sola, Sofia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4522,7 +4686,7 @@
         <v>231</v>
       </c>
       <c r="K121" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B121,1),"@2",C121,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78900,Solano, Franco Javier, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4555,7 +4719,7 @@
         <v>231</v>
       </c>
       <c r="K122" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B122,1),"@2",C122,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79657,Taborda Ramirez, Ulises Damian, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4582,7 +4746,7 @@
         <v>231</v>
       </c>
       <c r="K123" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B123,1),"@2",C123,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77191,Taborda, Romina Elba Valentina, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4615,7 +4779,7 @@
         <v>231</v>
       </c>
       <c r="K124" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B124,1),"@2",C124,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79629,Tapia Flores, Vanina Angie, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4648,7 +4812,7 @@
         <v>231</v>
       </c>
       <c r="K125" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B125,1),"@2",C125,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80554,Tello Salas, Ibar Agustin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4681,7 +4845,7 @@
         <v>231</v>
       </c>
       <c r="K126" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B126,1),"@2",C126,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75052,Touz, Juan Manuel, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4708,7 +4872,7 @@
         <v>231</v>
       </c>
       <c r="K127" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B127,1),"@2",C127,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81092,Trabucco, Joaquin, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4738,7 +4902,7 @@
         <v>231</v>
       </c>
       <c r="K128" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B128,1),"@2",C128,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75246,Urquiza, Evelin Aimé del Valle, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4771,7 +4935,7 @@
         <v>231</v>
       </c>
       <c r="K129" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B129,1),"@2",C129,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79102,Velazquez, Lautaro, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4804,7 +4968,7 @@
         <v>231</v>
       </c>
       <c r="K130" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B130,1),"@2",C130,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80018,Villarreal, Dana Sofia, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4819,7 +4983,7 @@
         <v>128</v>
       </c>
       <c r="K131" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B131,1),"@2",C131,1)</f>
+        <f t="shared" ref="K131:K132" si="2">SUBSTITUTE(SUBSTITUTE(K$1,"@1",B131,1),"@2",C131,1)</f>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80605,Wainer, Iara Ariadna, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -4837,7 +5001,7 @@
         <v>231</v>
       </c>
       <c r="K132" s="12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(K2,"@1",B132,1),"@2",C132,1)</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81611,Yunes, Paula Andrea, 1 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5141,7 +5305,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5227,7 +5391,7 @@
         <v>231</v>
       </c>
       <c r="K2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B2,1),"@2",C2,1)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(L$1,"@1",B2,1),"@2",C2,1)</f>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80409,Aguado, Ana Carolina, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5242,7 +5406,7 @@
         <v>131</v>
       </c>
       <c r="K3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B3,1),"@2",C3,1)</f>
+        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(SUBSTITUTE(L$1,"@1",B3,1),"@2",C3,1)</f>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80692,Aguero, Nemesis Ayelen, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5275,7 +5439,7 @@
         <v>231</v>
       </c>
       <c r="K4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B4,1),"@2",C4,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78984,Aldeco Molina, Juan Ignacio, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5302,7 +5466,7 @@
         <v>233</v>
       </c>
       <c r="K5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B5,1),"@2",C5,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81385,Aliendro, Javier Ignacio, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5317,7 +5481,7 @@
         <v>134</v>
       </c>
       <c r="K6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B6,1),"@2",C6,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (54362,Altamirano, Ricardo Gaston, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5344,7 +5508,7 @@
         <v>231</v>
       </c>
       <c r="K7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B7,1),"@2",C7,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74804,Antoniazzi, Cristian Gaston, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5365,7 +5529,7 @@
         <v>231</v>
       </c>
       <c r="K8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B8,1),"@2",C8,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (70108,Arce, Rocio Anahi, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5395,7 +5559,7 @@
         <v>231</v>
       </c>
       <c r="K9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B9,1),"@2",C9,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81319,Aresqueta, Juan Esteban, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5428,7 +5592,7 @@
         <v>231</v>
       </c>
       <c r="K10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B10,1),"@2",C10,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79794,Atencio, Federico, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5461,7 +5625,7 @@
         <v>231</v>
       </c>
       <c r="K11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B11,1),"@2",C11,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78275,Balan, Camila Ariana, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5494,7 +5658,7 @@
         <v>231</v>
       </c>
       <c r="K12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B12,1),"@2",C12,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79329,Barcia, Luciana, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5524,7 +5688,7 @@
         <v>231</v>
       </c>
       <c r="K13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B13,1),"@2",C13,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77023,Benitez, Alain Patric, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5557,7 +5721,7 @@
         <v>231</v>
       </c>
       <c r="K14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B14,1),"@2",C14,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78941,Bertossi, Agostina, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5590,7 +5754,7 @@
         <v>231</v>
       </c>
       <c r="K15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B15,1),"@2",C15,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79437,Burgoa Cortez, Nicole, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5620,7 +5784,7 @@
         <v>231</v>
       </c>
       <c r="K16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B16,1),"@2",C16,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78383,Bustos, Abril Rocio, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5644,7 +5808,7 @@
         <v>231</v>
       </c>
       <c r="K17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B17,1),"@2",C17,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79947,Cabrera Burgos, Daniel Ezequiel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5677,7 +5841,7 @@
         <v>231</v>
       </c>
       <c r="K18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B18,1),"@2",C18,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80212,Cacciavillani, Filipo, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5692,7 +5856,7 @@
         <v>147</v>
       </c>
       <c r="K19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B19,1),"@2",C19,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (54398,Caceres, Nicolas Horacio, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5725,7 +5889,7 @@
         <v>231</v>
       </c>
       <c r="K20" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B20,1),"@2",C20,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80798,Callejo, Lina Gisela, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5740,7 +5904,7 @@
         <v>149</v>
       </c>
       <c r="K21" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B21,1),"@2",C21,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (72940,Camporeale, Nicolas Eric, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5755,7 +5919,7 @@
         <v>150</v>
       </c>
       <c r="K22" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B22,1),"@2",C22,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79193,Castillo Miranda, Maria Paula, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5782,7 +5946,7 @@
         <v>231</v>
       </c>
       <c r="K23" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B23,1),"@2",C23,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81049,Castro, Daniela Veronica, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5815,7 +5979,7 @@
         <v>231</v>
       </c>
       <c r="K24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B24,1),"@2",C24,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78650,Catalano Tortelli, Camila, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5848,7 +6012,7 @@
         <v>231</v>
       </c>
       <c r="K25" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B25,1),"@2",C25,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79447,Cavatorta, Blas, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5881,7 +6045,7 @@
         <v>231</v>
       </c>
       <c r="K26" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B26,1),"@2",C26,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78736,Cavillon, Maria Azul, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5914,7 +6078,7 @@
         <v>231</v>
       </c>
       <c r="K27" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B27,1),"@2",C27,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79960,Cazon Revollo, Facundo Miguel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5929,7 +6093,7 @@
         <v>156</v>
       </c>
       <c r="K28" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B28,1),"@2",C28,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (51605,Cortabarria, Joaquin Emiliano, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5962,7 +6126,7 @@
         <v>231</v>
       </c>
       <c r="K29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B29,1),"@2",C29,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80986,Coscolla, Maximiliano Luis, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -5989,7 +6153,7 @@
         <v>231</v>
       </c>
       <c r="K30" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B30,1),"@2",C30,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79736,Crespin, Pablo Agustin, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6022,7 +6186,7 @@
         <v>231</v>
       </c>
       <c r="K31" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B31,1),"@2",C31,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78347,Cristin, Dana Martina, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6055,7 +6219,7 @@
         <v>231</v>
       </c>
       <c r="K32" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B32,1),"@2",C32,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78534,Di Chiazza, Lisandro Agustin, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6088,7 +6252,7 @@
         <v>231</v>
       </c>
       <c r="K33" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B33,1),"@2",C33,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80301,Di Terlizzi, Dana Guadalupe, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6121,7 +6285,7 @@
         <v>231</v>
       </c>
       <c r="K34" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B34,1),"@2",C34,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79927,Dorvilus, Djems, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6151,7 +6315,7 @@
         <v>231</v>
       </c>
       <c r="K35" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B35,1),"@2",C35,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78414,Ferrigno, Maria Nazarena, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6181,7 +6345,7 @@
         <v>231</v>
       </c>
       <c r="K36" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B36,1),"@2",C36,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71092,Figueroa, Nicolás Ezequiel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6208,7 +6372,7 @@
         <v>231</v>
       </c>
       <c r="K37" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B37,1),"@2",C37,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77686,Franchi, Juan Gabriel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6241,7 +6405,7 @@
         <v>231</v>
       </c>
       <c r="K38" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B38,1),"@2",C38,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76238,Garcia, Catalina, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6271,7 +6435,7 @@
         <v>231</v>
       </c>
       <c r="K39" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B39,1),"@2",C39,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (65002,García, Lautaro Hernán, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6304,7 +6468,7 @@
         <v>231</v>
       </c>
       <c r="K40" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B40,1),"@2",C40,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74217,Garcia, Sebastian Eduardo, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6334,7 +6498,7 @@
         <v>231</v>
       </c>
       <c r="K41" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B41,1),"@2",C41,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80144,Ghibaudo Lopez, Rosario Ayelen, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6349,7 +6513,7 @@
         <v>170</v>
       </c>
       <c r="K42" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B42,1),"@2",C42,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (69978,Ghigo, Roxana del Valle, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6376,7 +6540,7 @@
         <v>231</v>
       </c>
       <c r="K43" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B43,1),"@2",C43,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77793,Israel, Kief Weler Stevensky, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6406,7 +6570,7 @@
         <v>231</v>
       </c>
       <c r="K44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B44,1),"@2",C44,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79354,Israel, Mudge Murdrelle, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6430,7 +6594,7 @@
         <v>231</v>
       </c>
       <c r="K45" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B45,1),"@2",C45,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (64624,Katogui, Agustin, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6463,7 +6627,7 @@
         <v>231</v>
       </c>
       <c r="K46" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B46,1),"@2",C46,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (74820,Laquiz Abraham, Amiel Ernesto, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6484,7 +6648,7 @@
         <v>231</v>
       </c>
       <c r="K47" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B47,1),"@2",C47,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77376,Leguiza, Florencia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6511,7 +6675,7 @@
         <v>231</v>
       </c>
       <c r="K48" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B48,1),"@2",C48,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (73197,Leon Tolentino, Thalia Jhanet, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6538,7 +6702,7 @@
         <v>231</v>
       </c>
       <c r="K49" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B49,1),"@2",C49,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80192,Lescano, Malena Stefanía, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6565,7 +6729,7 @@
         <v>231</v>
       </c>
       <c r="K50" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B50,1),"@2",C50,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77735,Madrid Zavaley, Macarena Daniela, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6598,7 +6762,7 @@
         <v>231</v>
       </c>
       <c r="K51" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B51,1),"@2",C51,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78570,Maiz Ricaldez, Kevin Arnold, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6625,7 +6789,7 @@
         <v>231</v>
       </c>
       <c r="K52" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B52,1),"@2",C52,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81388,Mandolini, Enzo Guido, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6640,7 +6804,7 @@
         <v>181</v>
       </c>
       <c r="K53" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B53,1),"@2",C53,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71906,Marin Acosta, Francisco, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6655,7 +6819,7 @@
         <v>182</v>
       </c>
       <c r="K54" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B54,1),"@2",C54,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (81524,Mayer, Alfredo Gustavo, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6688,7 +6852,7 @@
         <v>231</v>
       </c>
       <c r="K55" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B55,1),"@2",C55,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80335,Mayon, Santiago Ignacio, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6721,7 +6885,7 @@
         <v>231</v>
       </c>
       <c r="K56" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B56,1),"@2",C56,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78861,Medina Quinteros, Alexandra, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6754,7 +6918,7 @@
         <v>231</v>
       </c>
       <c r="K57" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B57,1),"@2",C57,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78526,Michalik Malara, Sathya Cecilia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6784,7 +6948,7 @@
         <v>231</v>
       </c>
       <c r="K58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B58,1),"@2",C58,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75720,Misericordia, Hector Leandro, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6817,7 +6981,7 @@
         <v>231</v>
       </c>
       <c r="K59" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B59,1),"@2",C59,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79168,Montenegro, Mayra Cecilia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6832,7 +6996,7 @@
         <v>188</v>
       </c>
       <c r="K60" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B60,1),"@2",C60,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75701,Moran, Maria Belén, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6847,7 +7011,7 @@
         <v>189</v>
       </c>
       <c r="K61" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B61,1),"@2",C61,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (61776,Moyano, Jessica Patricia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6862,7 +7026,7 @@
         <v>190</v>
       </c>
       <c r="K62" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B62,1),"@2",C62,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (70107,Muñoz Rivadero, Maria De Los Angeles, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6889,7 +7053,7 @@
         <v>231</v>
       </c>
       <c r="K63" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B63,1),"@2",C63,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78916,Navarro Alonso, Sofía, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6922,7 +7086,7 @@
         <v>231</v>
       </c>
       <c r="K64" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B64,1),"@2",C64,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79242,Nuñez, Guadalupe Milagros, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6937,7 +7101,7 @@
         <v>193</v>
       </c>
       <c r="K65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B65,1),"@2",C65,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (77591,Nuñez, Hector Mateo, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6952,7 +7116,7 @@
         <v>194</v>
       </c>
       <c r="K66" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B66,1),"@2",C66,1)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80025,Ochoa, Alejandro Nicolas, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -6985,7 +7149,7 @@
         <v>231</v>
       </c>
       <c r="K67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B67,1),"@2",C67,1)</f>
+        <f t="shared" ref="K67:K97" si="1">SUBSTITUTE(SUBSTITUTE(L$1,"@1",B67,1),"@2",C67,1)</f>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79218,Ortega, Cecilia Maria, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7015,7 +7179,7 @@
         <v>231</v>
       </c>
       <c r="K68" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B68,1),"@2",C68,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80142,Ottosen, Fiona Lucia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7042,7 +7206,7 @@
         <v>231</v>
       </c>
       <c r="K69" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B69,1),"@2",C69,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78985,Pacheco Luna, Maria Constanza, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7075,7 +7239,7 @@
         <v>231</v>
       </c>
       <c r="K70" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B70,1),"@2",C70,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80607,Pedroso, Cecilia Florencia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7108,7 +7272,7 @@
         <v>231</v>
       </c>
       <c r="K71" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B71,1),"@2",C71,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78734,Peralta, Tomas Daniel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7138,7 +7302,7 @@
         <v>231</v>
       </c>
       <c r="K72" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B72,1),"@2",C72,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80318,Peretti, Fabricio Alejandro, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7171,7 +7335,7 @@
         <v>231</v>
       </c>
       <c r="K73" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B73,1),"@2",C73,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71241,Perotti Bernardini, Robertino, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7201,7 +7365,7 @@
         <v>231</v>
       </c>
       <c r="K74" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B74,1),"@2",C74,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79888,Pierre Louis, Virginia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7234,7 +7398,7 @@
         <v>231</v>
       </c>
       <c r="K75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B75,1),"@2",C75,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78556,Pistone, Ezequiel Ivan, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7261,7 +7425,7 @@
         <v>231</v>
       </c>
       <c r="K76" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B76,1),"@2",C76,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79422,Pollastrinni, Enzo Maximiliano, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7294,7 +7458,7 @@
         <v>231</v>
       </c>
       <c r="K77" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B77,1),"@2",C77,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79454,Prosdocimo, Celeste, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7327,7 +7491,7 @@
         <v>231</v>
       </c>
       <c r="K78" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B78,1),"@2",C78,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78529,Pussetto, Victoria Isabel, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7360,7 +7524,7 @@
         <v>231</v>
       </c>
       <c r="K79" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B79,1),"@2",C79,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79279,Rodriguez, Sofia Luciana, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7378,7 +7542,7 @@
         <v>231</v>
       </c>
       <c r="K80" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B80,1),"@2",C80,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78929,Rojas Pervetic, Antonio Hector Domingo, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7411,7 +7575,7 @@
         <v>231</v>
       </c>
       <c r="K81" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B81,1),"@2",C81,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78392,Ruiz, Candela Milagros, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7441,7 +7605,7 @@
         <v>231</v>
       </c>
       <c r="K82" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B82,1),"@2",C82,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (73198,Saavedra Villarreal, Mariel Daniela Victoria, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7471,7 +7635,7 @@
         <v>231</v>
       </c>
       <c r="K83" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B83,1),"@2",C83,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (71681,Sanchez, Maira Lelis, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7504,7 +7668,7 @@
         <v>231</v>
       </c>
       <c r="K84" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B84,1),"@2",C84,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (76623,Sarmiento, Romina Julia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7534,7 +7698,7 @@
         <v>231</v>
       </c>
       <c r="K85" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B85,1),"@2",C85,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80432,Sireix, Rocio Camila, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7564,7 +7728,7 @@
         <v>231</v>
       </c>
       <c r="K86" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B86,1),"@2",C86,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (69137,Suarez, Augusto Alejandro, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7594,7 +7758,7 @@
         <v>231</v>
       </c>
       <c r="K87" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B87,1),"@2",C87,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78477,Tornato, Sofia Milagros, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7627,7 +7791,7 @@
         <v>231</v>
       </c>
       <c r="K88" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B88,1),"@2",C88,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80366,Torres Reigosa, Alvaro, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7660,7 +7824,7 @@
         <v>231</v>
       </c>
       <c r="K89" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B89,1),"@2",C89,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (75474,Torres, Sofía Helena, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7693,7 +7857,7 @@
         <v>231</v>
       </c>
       <c r="K90" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B90,1),"@2",C90,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79261,Velazquez, Laura Natalia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7708,7 +7872,7 @@
         <v>219</v>
       </c>
       <c r="K91" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B91,1),"@2",C91,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (64187,Vera Romero, Debora Cynthia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7732,7 +7896,7 @@
         <v>231</v>
       </c>
       <c r="K92" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B92,1),"@2",C92,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78445,Vera, Camila Jenifer, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7756,7 +7920,7 @@
         <v>231</v>
       </c>
       <c r="K93" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B93,1),"@2",C93,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (59553,Vilchez, Jeremias Adrian, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7789,7 +7953,7 @@
         <v>231</v>
       </c>
       <c r="K94" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B94,1),"@2",C94,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (80650,Vincent, Clara Heliette, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7822,7 +7986,7 @@
         <v>231</v>
       </c>
       <c r="K95" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B95,1),"@2",C95,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (78396,Viscarra Sanchez, Rocio Agostina, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7855,7 +8019,7 @@
         <v>231</v>
       </c>
       <c r="K96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B96,1),"@2",C96,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79660,Wismer, Kimberly Patricia, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
@@ -7873,7 +8037,7 @@
         <v>231</v>
       </c>
       <c r="K97" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(L1,"@1",B97,1),"@2",C97,1)</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO Alumnos(legajo, apellido, nombre, id_curso, id_condicion , grupo , fecha_ingreso, visible) VALUES (79979,Yapura, Alvaro Alexis, 2 , 3, null,'01/04/2018',0)</v>
       </c>
     </row>
